--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>BLOCK_NUMBER</t>
+  </si>
   <si>
     <t>SAMPLE_TYPE</t>
   </si>
@@ -59,6 +62,15 @@
   </si>
   <si>
     <t>LIST_VIEW</t>
+  </si>
+  <si>
+    <t>INSTRUCTION</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>instrukcja.txt</t>
   </si>
   <si>
     <t>letters</t>
@@ -398,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,425 +464,974 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s"/>
-      <c r="Q1">
-        <f>SUM(Q2: Q500)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s"/>
+      <c r="S1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2">
+        <f>IF(AND(OR(B2 ="letters",B2 ="figures",B2 ="NamesHeightRelations", B2 ="NamesAgeRelations"),OR(C2 = 2,C2 = 3,C2 = 4),OR(E2 = 0,E2 = 1),OR(F2 = 0,F2 = 1),OR(J2 = 0,J2 = 1),OR(L2 = 0,L2 = 1),OR(M2 = 0,M2 = 1),OR(O2 = 0,O2 = 1),OR(P2 = 0,P2 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2">
-        <f>IF(AND(OR(A2 ="letters",A2 ="figures",A2 ="NamesHeightRelations", A2 ="NamesAgeRelations"),OR(B2 = 2,B2 = 3,B2 = 4),OR(D2 = 0,D2 = 1),OR(E2 = 0,E2 = 1),OR(I2 = 0,I2 = 1),OR(K2 = 0,K2 = 1),OR(L2 = 0,L2 = 1),OR(N2 = 0,N2 = 1),OR(O2 = 0,O2 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3">
+        <f>IF(AND(OR(B3 ="letters",B3 ="figures",B3 ="NamesHeightRelations", B3 ="NamesAgeRelations"),OR(C3 = 2,C3 = 3,C3 = 4),OR(E3 = 0,E3 = 1),OR(F3 = 0,F3 = 1),OR(J3 = 0,J3 = 1),OR(L3 = 0,L3 = 1),OR(M3 = 0,M3 = 1),OR(O3 = 0,O3 = 1),OR(P3 = 0,P3 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3">
-        <f>IF(AND(OR(A3 ="letters",A3 ="figures",A3 ="NamesHeightRelations", A3 ="NamesAgeRelations"),OR(B3 = 2,B3 = 3,B3 = 4),OR(D3 = 0,D3 = 1),OR(E3 = 0,E3 = 1),OR(I3 = 0,I3 = 1),OR(K3 = 0,K3 = 1),OR(L3 = 0,L3 = 1),OR(N3 = 0,N3 = 1),OR(O3 = 0,O3 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4">
+        <f>IF(AND(OR(B4 ="letters",B4 ="figures",B4 ="NamesHeightRelations", B4 ="NamesAgeRelations"),OR(C4 = 2,C4 = 3,C4 = 4),OR(E4 = 0,E4 = 1),OR(F4 = 0,F4 = 1),OR(J4 = 0,J4 = 1),OR(L4 = 0,L4 = 1),OR(M4 = 0,M4 = 1),OR(O4 = 0,O4 = 1),OR(P4 = 0,P4 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4">
-        <f>IF(AND(OR(A4 ="letters",A4 ="figures",A4 ="NamesHeightRelations", A4 ="NamesAgeRelations"),OR(B4 = 2,B4 = 3,B4 = 4),OR(D4 = 0,D4 = 1),OR(E4 = 0,E4 = 1),OR(I4 = 0,I4 = 1),OR(K4 = 0,K4 = 1),OR(L4 = 0,L4 = 1),OR(N4 = 0,N4 = 1),OR(O4 = 0,O4 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5">
+        <f>IF(AND(OR(B5 ="letters",B5 ="figures",B5 ="NamesHeightRelations", B5 ="NamesAgeRelations"),OR(C5 = 2,C5 = 3,C5 = 4),OR(E5 = 0,E5 = 1),OR(F5 = 0,F5 = 1),OR(J5 = 0,J5 = 1),OR(L5 = 0,L5 = 1),OR(M5 = 0,M5 = 1),OR(O5 = 0,O5 = 1),OR(P5 = 0,P5 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5">
-        <f>IF(AND(OR(A5 ="letters",A5 ="figures",A5 ="NamesHeightRelations", A5 ="NamesAgeRelations"),OR(B5 = 2,B5 = 3,B5 = 4),OR(D5 = 0,D5 = 1),OR(E5 = 0,E5 = 1),OR(I5 = 0,I5 = 1),OR(K5 = 0,K5 = 1),OR(L5 = 0,L5 = 1),OR(N5 = 0,N5 = 1),OR(O5 = 0,O5 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="s"/>
-      <c r="Q6">
-        <f>IF(AND(OR(A6 ="letters",A6 ="figures",A6 ="NamesHeightRelations", A6 ="NamesAgeRelations"),OR(B6 = 2,B6 = 3,B6 = 4),OR(D6 = 0,D6 = 1),OR(E6 = 0,E6 = 1),OR(I6 = 0,I6 = 1),OR(K6 = 0,K6 = 1),OR(L6 = 0,L6 = 1),OR(N6 = 0,N6 = 1),OR(O6 = 0,O6 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6">
+        <f>IF(AND(OR(B6 ="letters",B6 ="figures",B6 ="NamesHeightRelations", B6 ="NamesAgeRelations"),OR(C6 = 2,C6 = 3,C6 = 4),OR(E6 = 0,E6 = 1),OR(F6 = 0,F6 = 1),OR(J6 = 0,J6 = 1),OR(L6 = 0,L6 = 1),OR(M6 = 0,M6 = 1),OR(O6 = 0,O6 = 1),OR(P6 = 0,P6 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7">
+        <f>IF(AND(OR(B7 ="letters",B7 ="figures",B7 ="NamesHeightRelations", B7 ="NamesAgeRelations"),OR(C7 = 2,C7 = 3,C7 = 4),OR(E7 = 0,E7 = 1),OR(F7 = 0,F7 = 1),OR(J7 = 0,J7 = 1),OR(L7 = 0,L7 = 1),OR(M7 = 0,M7 = 1),OR(O7 = 0,O7 = 1),OR(P7 = 0,P7 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7">
-        <f>IF(AND(OR(A7 ="letters",A7 ="figures",A7 ="NamesHeightRelations", A7 ="NamesAgeRelations"),OR(B7 = 2,B7 = 3,B7 = 4),OR(D7 = 0,D7 = 1),OR(E7 = 0,E7 = 1),OR(I7 = 0,I7 = 1),OR(K7 = 0,K7 = 1),OR(L7 = 0,L7 = 1),OR(N7 = 0,N7 = 1),OR(O7 = 0,O7 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8">
+        <f>IF(AND(OR(B8 ="letters",B8 ="figures",B8 ="NamesHeightRelations", B8 ="NamesAgeRelations"),OR(C8 = 2,C8 = 3,C8 = 4),OR(E8 = 0,E8 = 1),OR(F8 = 0,F8 = 1),OR(J8 = 0,J8 = 1),OR(L8 = 0,L8 = 1),OR(M8 = 0,M8 = 1),OR(O8 = 0,O8 = 1),OR(P8 = 0,P8 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8">
-        <f>IF(AND(OR(A8 ="letters",A8 ="figures",A8 ="NamesHeightRelations", A8 ="NamesAgeRelations"),OR(B8 = 2,B8 = 3,B8 = 4),OR(D8 = 0,D8 = 1),OR(E8 = 0,E8 = 1),OR(I8 = 0,I8 = 1),OR(K8 = 0,K8 = 1),OR(L8 = 0,L8 = 1),OR(N8 = 0,N8 = 1),OR(O8 = 0,O8 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9">
+        <f>IF(AND(OR(B9 ="letters",B9 ="figures",B9 ="NamesHeightRelations", B9 ="NamesAgeRelations"),OR(C9 = 2,C9 = 3,C9 = 4),OR(E9 = 0,E9 = 1),OR(F9 = 0,F9 = 1),OR(J9 = 0,J9 = 1),OR(L9 = 0,L9 = 1),OR(M9 = 0,M9 = 1),OR(O9 = 0,O9 = 1),OR(P9 = 0,P9 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9">
-        <f>IF(AND(OR(A9 ="letters",A9 ="figures",A9 ="NamesHeightRelations", A9 ="NamesAgeRelations"),OR(B9 = 2,B9 = 3,B9 = 4),OR(D9 = 0,D9 = 1),OR(E9 = 0,E9 = 1),OR(I9 = 0,I9 = 1),OR(K9 = 0,K9 = 1),OR(L9 = 0,L9 = 1),OR(N9 = 0,N9 = 1),OR(O9 = 0,O9 = 1)),1, 0)</f>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10">
+        <f>IF(AND(OR(B10 ="letters",B10 ="figures",B10 ="NamesHeightRelations", B10 ="NamesAgeRelations"),OR(C10 = 2,C10 = 3,C10 = 4),OR(E10 = 0,E10 = 1),OR(F10 = 0,F10 = 1),OR(J10 = 0,J10 = 1),OR(L10 = 0,L10 = 1),OR(M10 = 0,M10 = 1),OR(O10 = 0,O10 = 1),OR(P10 = 0,P10 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11">
+        <f>IF(AND(OR(B11 ="letters",B11 ="figures",B11 ="NamesHeightRelations", B11 ="NamesAgeRelations"),OR(C11 = 2,C11 = 3,C11 = 4),OR(E11 = 0,E11 = 1),OR(F11 = 0,F11 = 1),OR(J11 = 0,J11 = 1),OR(L11 = 0,L11 = 1),OR(M11 = 0,M11 = 1),OR(O11 = 0,O11 = 1),OR(P11 = 0,P11 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12">
+        <f>IF(AND(OR(B12 ="letters",B12 ="figures",B12 ="NamesHeightRelations", B12 ="NamesAgeRelations"),OR(C12 = 2,C12 = 3,C12 = 4),OR(E12 = 0,E12 = 1),OR(F12 = 0,F12 = 1),OR(J12 = 0,J12 = 1),OR(L12 = 0,L12 = 1),OR(M12 = 0,M12 = 1),OR(O12 = 0,O12 = 1),OR(P12 = 0,P12 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13">
+        <f>IF(AND(OR(B13 ="letters",B13 ="figures",B13 ="NamesHeightRelations", B13 ="NamesAgeRelations"),OR(C13 = 2,C13 = 3,C13 = 4),OR(E13 = 0,E13 = 1),OR(F13 = 0,F13 = 1),OR(J13 = 0,J13 = 1),OR(L13 = 0,L13 = 1),OR(M13 = 0,M13 = 1),OR(O13 = 0,O13 = 1),OR(P13 = 0,P13 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14">
+        <f>IF(AND(OR(B14 ="letters",B14 ="figures",B14 ="NamesHeightRelations", B14 ="NamesAgeRelations"),OR(C14 = 2,C14 = 3,C14 = 4),OR(E14 = 0,E14 = 1),OR(F14 = 0,F14 = 1),OR(J14 = 0,J14 = 1),OR(L14 = 0,L14 = 1),OR(M14 = 0,M14 = 1),OR(O14 = 0,O14 = 1),OR(P14 = 0,P14 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15">
+        <f>IF(AND(OR(B15 ="letters",B15 ="figures",B15 ="NamesHeightRelations", B15 ="NamesAgeRelations"),OR(C15 = 2,C15 = 3,C15 = 4),OR(E15 = 0,E15 = 1),OR(F15 = 0,F15 = 1),OR(J15 = 0,J15 = 1),OR(L15 = 0,L15 = 1),OR(M15 = 0,M15 = 1),OR(O15 = 0,O15 = 1),OR(P15 = 0,P15 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16">
+        <f>IF(AND(OR(B16 ="letters",B16 ="figures",B16 ="NamesHeightRelations", B16 ="NamesAgeRelations"),OR(C16 = 2,C16 = 3,C16 = 4),OR(E16 = 0,E16 = 1),OR(F16 = 0,F16 = 1),OR(J16 = 0,J16 = 1),OR(L16 = 0,L16 = 1),OR(M16 = 0,M16 = 1),OR(O16 = 0,O16 = 1),OR(P16 = 0,P16 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17">
+        <f>IF(AND(OR(B17 ="letters",B17 ="figures",B17 ="NamesHeightRelations", B17 ="NamesAgeRelations"),OR(C17 = 2,C17 = 3,C17 = 4),OR(E17 = 0,E17 = 1),OR(F17 = 0,F17 = 1),OR(J17 = 0,J17 = 1),OR(L17 = 0,L17 = 1),OR(M17 = 0,M17 = 1),OR(O17 = 0,O17 = 1),OR(P17 = 0,P17 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18">
+        <f>IF(AND(OR(B18 ="letters",B18 ="figures",B18 ="NamesHeightRelations", B18 ="NamesAgeRelations"),OR(C18 = 2,C18 = 3,C18 = 4),OR(E18 = 0,E18 = 1),OR(F18 = 0,F18 = 1),OR(J18 = 0,J18 = 1),OR(L18 = 0,L18 = 1),OR(M18 = 0,M18 = 1),OR(O18 = 0,O18 = 1),OR(P18 = 0,P18 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19">
+        <f>IF(AND(OR(B19 ="letters",B19 ="figures",B19 ="NamesHeightRelations", B19 ="NamesAgeRelations"),OR(C19 = 2,C19 = 3,C19 = 4),OR(E19 = 0,E19 = 1),OR(F19 = 0,F19 = 1),OR(J19 = 0,J19 = 1),OR(L19 = 0,L19 = 1),OR(M19 = 0,M19 = 1),OR(O19 = 0,O19 = 1),OR(P19 = 0,P19 = 1)),1, 0)</f>
         <v/>
       </c>
     </row>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>BLOCK_NUMBER</t>
   </si>
@@ -40,7 +40,7 @@
     <t>RESP_TIME</t>
   </si>
   <si>
-    <t>MAXTIME</t>
+    <t>MAX_TIME</t>
   </si>
   <si>
     <t>FEEDB</t>
@@ -55,10 +55,7 @@
     <t>EXP</t>
   </si>
   <si>
-    <t>FIXTIME</t>
-  </si>
-  <si>
-    <t>EEG</t>
+    <t>FIX_TIME</t>
   </si>
   <si>
     <t>LIST_VIEW</t>
@@ -410,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,20 +464,18 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s"/>
+      <c r="R1">
+        <f>SUM(R2: R500)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s"/>
-      <c r="S1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
@@ -497,22 +492,20 @@
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2">
-        <f>IF(AND(OR(B2 ="letters",B2 ="figures",B2 ="NamesHeightRelations", B2 ="NamesAgeRelations"),OR(C2 = 2,C2 = 3,C2 = 4),OR(E2 = 0,E2 = 1),OR(F2 = 0,F2 = 1),OR(J2 = 0,J2 = 1),OR(L2 = 0,L2 = 1),OR(M2 = 0,M2 = 1),OR(O2 = 0,O2 = 1),OR(P2 = 0,P2 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -553,22 +546,19 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3">
-        <f>IF(AND(OR(B3 ="letters",B3 ="figures",B3 ="NamesHeightRelations", B3 ="NamesAgeRelations"),OR(C3 = 2,C3 = 3,C3 = 4),OR(E3 = 0,E3 = 1),OR(F3 = 0,F3 = 1),OR(J3 = 0,J3 = 1),OR(L3 = 0,L3 = 1),OR(M3 = 0,M3 = 1),OR(O3 = 0,O3 = 1),OR(P3 = 0,P3 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3">
+        <f>IF(AND(OR(B3 ="letters",B3 ="figures",B3 ="NamesHeightRelations", B3 ="NamesAgeRelations"),OR(C3 = 2,C3 = 3,C3 = 4),OR(E3 = 0,E3 = 1),OR(F3 = 0,F3 = 1),OR(J3 = 0,J3 = 1),OR(L3 = 0,L3 = 1),OR(N3 = 0,N3 = 1),OR(O3 = 0,O3 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -609,22 +599,19 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4">
-        <f>IF(AND(OR(B4 ="letters",B4 ="figures",B4 ="NamesHeightRelations", B4 ="NamesAgeRelations"),OR(C4 = 2,C4 = 3,C4 = 4),OR(E4 = 0,E4 = 1),OR(F4 = 0,F4 = 1),OR(J4 = 0,J4 = 1),OR(L4 = 0,L4 = 1),OR(M4 = 0,M4 = 1),OR(O4 = 0,O4 = 1),OR(P4 = 0,P4 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4">
+        <f>IF(AND(OR(B4 ="letters",B4 ="figures",B4 ="NamesHeightRelations", B4 ="NamesAgeRelations"),OR(C4 = 2,C4 = 3,C4 = 4),OR(E4 = 0,E4 = 1),OR(F4 = 0,F4 = 1),OR(J4 = 0,J4 = 1),OR(L4 = 0,L4 = 1),OR(N4 = 0,N4 = 1),OR(O4 = 0,O4 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -665,22 +652,19 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5">
-        <f>IF(AND(OR(B5 ="letters",B5 ="figures",B5 ="NamesHeightRelations", B5 ="NamesAgeRelations"),OR(C5 = 2,C5 = 3,C5 = 4),OR(E5 = 0,E5 = 1),OR(F5 = 0,F5 = 1),OR(J5 = 0,J5 = 1),OR(L5 = 0,L5 = 1),OR(M5 = 0,M5 = 1),OR(O5 = 0,O5 = 1),OR(P5 = 0,P5 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5">
+        <f>IF(AND(OR(B5 ="letters",B5 ="figures",B5 ="NamesHeightRelations", B5 ="NamesAgeRelations"),OR(C5 = 2,C5 = 3,C5 = 4),OR(E5 = 0,E5 = 1),OR(F5 = 0,F5 = 1),OR(J5 = 0,J5 = 1),OR(L5 = 0,L5 = 1),OR(N5 = 0,N5 = 1),OR(O5 = 0,O5 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -721,22 +705,19 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6">
-        <f>IF(AND(OR(B6 ="letters",B6 ="figures",B6 ="NamesHeightRelations", B6 ="NamesAgeRelations"),OR(C6 = 2,C6 = 3,C6 = 4),OR(E6 = 0,E6 = 1),OR(F6 = 0,F6 = 1),OR(J6 = 0,J6 = 1),OR(L6 = 0,L6 = 1),OR(M6 = 0,M6 = 1),OR(O6 = 0,O6 = 1),OR(P6 = 0,P6 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="R6">
+        <f>IF(AND(OR(B6 ="letters",B6 ="figures",B6 ="NamesHeightRelations", B6 ="NamesAgeRelations"),OR(C6 = 2,C6 = 3,C6 = 4),OR(E6 = 0,E6 = 1),OR(F6 = 0,F6 = 1),OR(J6 = 0,J6 = 1),OR(L6 = 0,L6 = 1),OR(N6 = 0,N6 = 1),OR(O6 = 0,O6 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -777,22 +758,19 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7">
-        <f>IF(AND(OR(B7 ="letters",B7 ="figures",B7 ="NamesHeightRelations", B7 ="NamesAgeRelations"),OR(C7 = 2,C7 = 3,C7 = 4),OR(E7 = 0,E7 = 1),OR(F7 = 0,F7 = 1),OR(J7 = 0,J7 = 1),OR(L7 = 0,L7 = 1),OR(M7 = 0,M7 = 1),OR(O7 = 0,O7 = 1),OR(P7 = 0,P7 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7">
+        <f>IF(AND(OR(B7 ="letters",B7 ="figures",B7 ="NamesHeightRelations", B7 ="NamesAgeRelations"),OR(C7 = 2,C7 = 3,C7 = 4),OR(E7 = 0,E7 = 1),OR(F7 = 0,F7 = 1),OR(J7 = 0,J7 = 1),OR(L7 = 0,L7 = 1),OR(N7 = 0,N7 = 1),OR(O7 = 0,O7 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -833,22 +811,19 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8">
-        <f>IF(AND(OR(B8 ="letters",B8 ="figures",B8 ="NamesHeightRelations", B8 ="NamesAgeRelations"),OR(C8 = 2,C8 = 3,C8 = 4),OR(E8 = 0,E8 = 1),OR(F8 = 0,F8 = 1),OR(J8 = 0,J8 = 1),OR(L8 = 0,L8 = 1),OR(M8 = 0,M8 = 1),OR(O8 = 0,O8 = 1),OR(P8 = 0,P8 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="R8">
+        <f>IF(AND(OR(B8 ="letters",B8 ="figures",B8 ="NamesHeightRelations", B8 ="NamesAgeRelations"),OR(C8 = 2,C8 = 3,C8 = 4),OR(E8 = 0,E8 = 1),OR(F8 = 0,F8 = 1),OR(J8 = 0,J8 = 1),OR(L8 = 0,L8 = 1),OR(N8 = 0,N8 = 1),OR(O8 = 0,O8 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -889,22 +864,19 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9">
-        <f>IF(AND(OR(B9 ="letters",B9 ="figures",B9 ="NamesHeightRelations", B9 ="NamesAgeRelations"),OR(C9 = 2,C9 = 3,C9 = 4),OR(E9 = 0,E9 = 1),OR(F9 = 0,F9 = 1),OR(J9 = 0,J9 = 1),OR(L9 = 0,L9 = 1),OR(M9 = 0,M9 = 1),OR(O9 = 0,O9 = 1),OR(P9 = 0,P9 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="R9">
+        <f>IF(AND(OR(B9 ="letters",B9 ="figures",B9 ="NamesHeightRelations", B9 ="NamesAgeRelations"),OR(C9 = 2,C9 = 3,C9 = 4),OR(E9 = 0,E9 = 1),OR(F9 = 0,F9 = 1),OR(J9 = 0,J9 = 1),OR(L9 = 0,L9 = 1),OR(N9 = 0,N9 = 1),OR(O9 = 0,O9 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="n">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -945,22 +917,19 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10">
-        <f>IF(AND(OR(B10 ="letters",B10 ="figures",B10 ="NamesHeightRelations", B10 ="NamesAgeRelations"),OR(C10 = 2,C10 = 3,C10 = 4),OR(E10 = 0,E10 = 1),OR(F10 = 0,F10 = 1),OR(J10 = 0,J10 = 1),OR(L10 = 0,L10 = 1),OR(M10 = 0,M10 = 1),OR(O10 = 0,O10 = 1),OR(P10 = 0,P10 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="R10">
+        <f>IF(AND(OR(B10 ="letters",B10 ="figures",B10 ="NamesHeightRelations", B10 ="NamesAgeRelations"),OR(C10 = 2,C10 = 3,C10 = 4),OR(E10 = 0,E10 = 1),OR(F10 = 0,F10 = 1),OR(J10 = 0,J10 = 1),OR(L10 = 0,L10 = 1),OR(N10 = 0,N10 = 1),OR(O10 = 0,O10 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="n">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
@@ -977,22 +946,20 @@
       <c r="M11" t="s"/>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11">
-        <f>IF(AND(OR(B11 ="letters",B11 ="figures",B11 ="NamesHeightRelations", B11 ="NamesAgeRelations"),OR(C11 = 2,C11 = 3,C11 = 4),OR(E11 = 0,E11 = 1),OR(F11 = 0,F11 = 1),OR(J11 = 0,J11 = 1),OR(L11 = 0,L11 = 1),OR(M11 = 0,M11 = 1),OR(O11 = 0,O11 = 1),OR(P11 = 0,P11 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="n">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1033,22 +1000,19 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12">
-        <f>IF(AND(OR(B12 ="letters",B12 ="figures",B12 ="NamesHeightRelations", B12 ="NamesAgeRelations"),OR(C12 = 2,C12 = 3,C12 = 4),OR(E12 = 0,E12 = 1),OR(F12 = 0,F12 = 1),OR(J12 = 0,J12 = 1),OR(L12 = 0,L12 = 1),OR(M12 = 0,M12 = 1),OR(O12 = 0,O12 = 1),OR(P12 = 0,P12 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="R12">
+        <f>IF(AND(OR(B12 ="letters",B12 ="figures",B12 ="NamesHeightRelations", B12 ="NamesAgeRelations"),OR(C12 = 2,C12 = 3,C12 = 4),OR(E12 = 0,E12 = 1),OR(F12 = 0,F12 = 1),OR(J12 = 0,J12 = 1),OR(L12 = 0,L12 = 1),OR(N12 = 0,N12 = 1),OR(O12 = 0,O12 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="n">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1089,22 +1053,19 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13">
-        <f>IF(AND(OR(B13 ="letters",B13 ="figures",B13 ="NamesHeightRelations", B13 ="NamesAgeRelations"),OR(C13 = 2,C13 = 3,C13 = 4),OR(E13 = 0,E13 = 1),OR(F13 = 0,F13 = 1),OR(J13 = 0,J13 = 1),OR(L13 = 0,L13 = 1),OR(M13 = 0,M13 = 1),OR(O13 = 0,O13 = 1),OR(P13 = 0,P13 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="R13">
+        <f>IF(AND(OR(B13 ="letters",B13 ="figures",B13 ="NamesHeightRelations", B13 ="NamesAgeRelations"),OR(C13 = 2,C13 = 3,C13 = 4),OR(E13 = 0,E13 = 1),OR(F13 = 0,F13 = 1),OR(J13 = 0,J13 = 1),OR(L13 = 0,L13 = 1),OR(N13 = 0,N13 = 1),OR(O13 = 0,O13 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="n">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1145,22 +1106,19 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14">
-        <f>IF(AND(OR(B14 ="letters",B14 ="figures",B14 ="NamesHeightRelations", B14 ="NamesAgeRelations"),OR(C14 = 2,C14 = 3,C14 = 4),OR(E14 = 0,E14 = 1),OR(F14 = 0,F14 = 1),OR(J14 = 0,J14 = 1),OR(L14 = 0,L14 = 1),OR(M14 = 0,M14 = 1),OR(O14 = 0,O14 = 1),OR(P14 = 0,P14 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="R14">
+        <f>IF(AND(OR(B14 ="letters",B14 ="figures",B14 ="NamesHeightRelations", B14 ="NamesAgeRelations"),OR(C14 = 2,C14 = 3,C14 = 4),OR(E14 = 0,E14 = 1),OR(F14 = 0,F14 = 1),OR(J14 = 0,J14 = 1),OR(L14 = 0,L14 = 1),OR(N14 = 0,N14 = 1),OR(O14 = 0,O14 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="n">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1201,22 +1159,19 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15">
-        <f>IF(AND(OR(B15 ="letters",B15 ="figures",B15 ="NamesHeightRelations", B15 ="NamesAgeRelations"),OR(C15 = 2,C15 = 3,C15 = 4),OR(E15 = 0,E15 = 1),OR(F15 = 0,F15 = 1),OR(J15 = 0,J15 = 1),OR(L15 = 0,L15 = 1),OR(M15 = 0,M15 = 1),OR(O15 = 0,O15 = 1),OR(P15 = 0,P15 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="R15">
+        <f>IF(AND(OR(B15 ="letters",B15 ="figures",B15 ="NamesHeightRelations", B15 ="NamesAgeRelations"),OR(C15 = 2,C15 = 3,C15 = 4),OR(E15 = 0,E15 = 1),OR(F15 = 0,F15 = 1),OR(J15 = 0,J15 = 1),OR(L15 = 0,L15 = 1),OR(N15 = 0,N15 = 1),OR(O15 = 0,O15 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="n">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1257,22 +1212,19 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16">
-        <f>IF(AND(OR(B16 ="letters",B16 ="figures",B16 ="NamesHeightRelations", B16 ="NamesAgeRelations"),OR(C16 = 2,C16 = 3,C16 = 4),OR(E16 = 0,E16 = 1),OR(F16 = 0,F16 = 1),OR(J16 = 0,J16 = 1),OR(L16 = 0,L16 = 1),OR(M16 = 0,M16 = 1),OR(O16 = 0,O16 = 1),OR(P16 = 0,P16 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="R16">
+        <f>IF(AND(OR(B16 ="letters",B16 ="figures",B16 ="NamesHeightRelations", B16 ="NamesAgeRelations"),OR(C16 = 2,C16 = 3,C16 = 4),OR(E16 = 0,E16 = 1),OR(F16 = 0,F16 = 1),OR(J16 = 0,J16 = 1),OR(L16 = 0,L16 = 1),OR(N16 = 0,N16 = 1),OR(O16 = 0,O16 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="n">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1313,22 +1265,19 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17">
-        <f>IF(AND(OR(B17 ="letters",B17 ="figures",B17 ="NamesHeightRelations", B17 ="NamesAgeRelations"),OR(C17 = 2,C17 = 3,C17 = 4),OR(E17 = 0,E17 = 1),OR(F17 = 0,F17 = 1),OR(J17 = 0,J17 = 1),OR(L17 = 0,L17 = 1),OR(M17 = 0,M17 = 1),OR(O17 = 0,O17 = 1),OR(P17 = 0,P17 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="R17">
+        <f>IF(AND(OR(B17 ="letters",B17 ="figures",B17 ="NamesHeightRelations", B17 ="NamesAgeRelations"),OR(C17 = 2,C17 = 3,C17 = 4),OR(E17 = 0,E17 = 1),OR(F17 = 0,F17 = 1),OR(J17 = 0,J17 = 1),OR(L17 = 0,L17 = 1),OR(N17 = 0,N17 = 1),OR(O17 = 0,O17 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="n">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1369,22 +1318,19 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18">
-        <f>IF(AND(OR(B18 ="letters",B18 ="figures",B18 ="NamesHeightRelations", B18 ="NamesAgeRelations"),OR(C18 = 2,C18 = 3,C18 = 4),OR(E18 = 0,E18 = 1),OR(F18 = 0,F18 = 1),OR(J18 = 0,J18 = 1),OR(L18 = 0,L18 = 1),OR(M18 = 0,M18 = 1),OR(O18 = 0,O18 = 1),OR(P18 = 0,P18 = 1)),1, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="R18">
+        <f>IF(AND(OR(B18 ="letters",B18 ="figures",B18 ="NamesHeightRelations", B18 ="NamesAgeRelations"),OR(C18 = 2,C18 = 3,C18 = 4),OR(E18 = 0,E18 = 1),OR(F18 = 0,F18 = 1),OR(J18 = 0,J18 = 1),OR(L18 = 0,L18 = 1),OR(N18 = 0,N18 = 1),OR(O18 = 0,O18 = 1)),1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="n">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1425,13 +1371,10 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19">
-        <f>IF(AND(OR(B19 ="letters",B19 ="figures",B19 ="NamesHeightRelations", B19 ="NamesAgeRelations"),OR(C19 = 2,C19 = 3,C19 = 4),OR(E19 = 0,E19 = 1),OR(F19 = 0,F19 = 1),OR(J19 = 0,J19 = 1),OR(L19 = 0,L19 = 1),OR(M19 = 0,M19 = 1),OR(O19 = 0,O19 = 1),OR(P19 = 0,P19 = 1)),1, 0)</f>
+      <c r="R19">
+        <f>IF(AND(OR(B19 ="letters",B19 ="figures",B19 ="NamesHeightRelations", B19 ="NamesAgeRelations"),OR(C19 = 2,C19 = 3,C19 = 4),OR(E19 = 0,E19 = 1),OR(F19 = 0,F19 = 1),OR(J19 = 0,J19 = 1),OR(L19 = 0,L19 = 1),OR(N19 = 0,N19 = 1),OR(O19 = 0,O19 = 1)),1, 0)</f>
         <v/>
       </c>
     </row>
